--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -543,10 +543,10 @@
         <v>0.080693</v>
       </c>
       <c r="I2">
-        <v>0.1425039425978938</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="J2">
-        <v>0.1425039425978939</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>0.2187112217206666</v>
+        <v>0.1020818183178889</v>
       </c>
       <c r="R2">
-        <v>1.968400995486</v>
+        <v>0.9187363648610001</v>
       </c>
       <c r="S2">
-        <v>0.002979751131094969</v>
+        <v>0.0008164800444740656</v>
       </c>
       <c r="T2">
-        <v>0.00297975113109497</v>
+        <v>0.0008164800444740656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.080693</v>
       </c>
       <c r="I3">
-        <v>0.1425039425978938</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="J3">
-        <v>0.1425039425978939</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>6.546257245869778</v>
+        <v>6.546257245869779</v>
       </c>
       <c r="R3">
-        <v>58.916315212828</v>
+        <v>58.91631521282801</v>
       </c>
       <c r="S3">
-        <v>0.08918709007867937</v>
+        <v>0.05235886757622329</v>
       </c>
       <c r="T3">
-        <v>0.08918709007867938</v>
+        <v>0.05235886757622329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.080693</v>
       </c>
       <c r="I4">
-        <v>0.1425039425978938</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="J4">
-        <v>0.1425039425978939</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>0.8988863799848889</v>
+        <v>0.8015873433676667</v>
       </c>
       <c r="R4">
-        <v>8.089977419864001</v>
+        <v>7.214286090309</v>
       </c>
       <c r="S4">
-        <v>0.01224654906325156</v>
+        <v>0.006411328486769214</v>
       </c>
       <c r="T4">
-        <v>0.01224654906325157</v>
+        <v>0.006411328486769213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.080693</v>
       </c>
       <c r="I5">
-        <v>0.1425039425978938</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="J5">
-        <v>0.1425039425978939</v>
+        <v>0.07819089147286823</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>2.795814438343889</v>
+        <v>2.326023943550445</v>
       </c>
       <c r="R5">
-        <v>25.162329945095</v>
+        <v>20.934215491954</v>
       </c>
       <c r="S5">
-        <v>0.03809055232486794</v>
+        <v>0.01860421536540165</v>
       </c>
       <c r="T5">
-        <v>0.03809055232486796</v>
+        <v>0.01860421536540165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1618526666666667</v>
+        <v>0.3171023333333333</v>
       </c>
       <c r="H6">
-        <v>0.485558</v>
+        <v>0.9513069999999999</v>
       </c>
       <c r="I6">
-        <v>0.8574960574021061</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="J6">
-        <v>0.8574960574021062</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>1.316061906190667</v>
+        <v>1.203464344348778</v>
       </c>
       <c r="R6">
-        <v>11.844557155716</v>
+        <v>10.831179099139</v>
       </c>
       <c r="S6">
-        <v>0.01793020459906326</v>
+        <v>0.009625657512652768</v>
       </c>
       <c r="T6">
-        <v>0.01793020459906326</v>
+        <v>0.009625657512652768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1618526666666667</v>
+        <v>0.3171023333333333</v>
       </c>
       <c r="H7">
-        <v>0.485558</v>
+        <v>0.9513069999999999</v>
       </c>
       <c r="I7">
-        <v>0.8574960574021061</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="J7">
-        <v>0.8574960574021062</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>39.39111912792978</v>
+        <v>77.17522389546356</v>
       </c>
       <c r="R7">
-        <v>354.520072151368</v>
+        <v>694.577015059172</v>
       </c>
       <c r="S7">
-        <v>0.5366699104559677</v>
+        <v>0.6172698652588732</v>
       </c>
       <c r="T7">
-        <v>0.5366699104559678</v>
+        <v>0.6172698652588732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1618526666666667</v>
+        <v>0.3171023333333333</v>
       </c>
       <c r="H8">
-        <v>0.485558</v>
+        <v>0.9513069999999999</v>
       </c>
       <c r="I8">
-        <v>0.8574960574021061</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="J8">
-        <v>0.8574960574021062</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>5.408913696264888</v>
+        <v>9.450084280632332</v>
       </c>
       <c r="R8">
-        <v>48.680223266384</v>
+        <v>85.05075852569098</v>
       </c>
       <c r="S8">
-        <v>0.07369176843163971</v>
+        <v>0.07558451995542315</v>
       </c>
       <c r="T8">
-        <v>0.07369176843163973</v>
+        <v>0.07558451995542315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1618526666666667</v>
+        <v>0.3171023333333333</v>
       </c>
       <c r="H9">
-        <v>0.485558</v>
+        <v>0.9513069999999999</v>
       </c>
       <c r="I9">
-        <v>0.8574960574021061</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="J9">
-        <v>0.8574960574021062</v>
+        <v>0.9218091085271318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>16.82339319461889</v>
+        <v>27.42199273378289</v>
       </c>
       <c r="R9">
-        <v>151.41053875157</v>
+        <v>246.797934604046</v>
       </c>
       <c r="S9">
-        <v>0.2292041739154355</v>
+        <v>0.2193290658001827</v>
       </c>
       <c r="T9">
-        <v>0.2292041739154355</v>
+        <v>0.2193290658001827</v>
       </c>
     </row>
   </sheetData>
